--- a/data/excel_file_temp.xlsx
+++ b/data/excel_file_temp.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="29">
   <si>
     <t xml:space="preserve">ID Обращения</t>
   </si>
@@ -37,7 +37,7 @@
     <t xml:space="preserve">Тональность заявителя</t>
   </si>
   <si>
-    <t xml:space="preserve">SD12345678</t>
+    <t xml:space="preserve">SD178853168</t>
   </si>
   <si>
     <t xml:space="preserve">Какой-то текст решения</t>
@@ -52,19 +52,19 @@
     <t xml:space="preserve">Нейтральное отношение</t>
   </si>
   <si>
-    <t xml:space="preserve">SD12345679</t>
+    <t xml:space="preserve">SD179016419</t>
   </si>
   <si>
     <t xml:space="preserve">Полная удовлетворенность</t>
   </si>
   <si>
-    <t xml:space="preserve">SD12345680</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD12345681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD12345670</t>
+    <t xml:space="preserve">SD179075515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD179077213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD179095194</t>
   </si>
   <si>
     <t xml:space="preserve">Вежливое обращение</t>
@@ -73,46 +73,40 @@
     <t xml:space="preserve">Без комментариев</t>
   </si>
   <si>
-    <t xml:space="preserve">SD12345683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD12345684</t>
+    <t xml:space="preserve">SD179131569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD179144952</t>
   </si>
   <si>
     <t xml:space="preserve">Неудовлетворенность</t>
   </si>
   <si>
-    <t xml:space="preserve">SD12345685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD12345686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD12345687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD12121212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD12121213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD12121214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD12121215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD12121216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD12121217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD12121218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD12121219</t>
+    <t xml:space="preserve">SD179303103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD179591049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD179334961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD179451356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD179458700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD179485160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD179526510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD179591031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD179591032</t>
   </si>
 </sst>
 </file>
@@ -228,10 +222,10 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="A18:E19"/>
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="A16:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.71"/>
@@ -261,7 +255,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>5</v>
       </c>
@@ -533,40 +527,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
